--- a/services/worker/demos/report/output/balance/this_month/balance-this_month.xlsx
+++ b/services/worker/demos/report/output/balance/this_month/balance-this_month.xlsx
@@ -574,7 +574,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="₪#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00;[Red]-#,##0.00"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
